--- a/db_data/cert_record.xlsx
+++ b/db_data/cert_record.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\IdeaProjects\QmServer\db_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C658D2-2B88-484E-B839-426AB0F788F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE021585-0057-4ABB-9FCE-307DB5712224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-16297" windowWidth="28996" windowHeight="15794" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="170">
   <si>
     <t>REC2021011800001</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -664,46 +665,46 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CNCCCXCHAN20210118001</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20200827001</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20200827002</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20201130001</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20201231001</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20210220001</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20210226001</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20210303001</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20210308001</t>
-  </si>
-  <si>
-    <t>CNROHSSDOC20201116004</t>
-  </si>
-  <si>
-    <t>CNSRRCORIG20201224001</t>
-  </si>
-  <si>
-    <t>CNSRRCORIG20201229001</t>
-  </si>
-  <si>
-    <t>TWBSMIORIG20201116001</t>
-  </si>
-  <si>
-    <t>TWBSMIORIG20201116002</t>
+    <t>CHNCCCXCHAN20210118001</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20200827001</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20200827002</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20201130001</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20201231001</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20210220001</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20210226001</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20210303001</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20210308001</t>
+  </si>
+  <si>
+    <t>CHNROHSSDOC20201116004</t>
+  </si>
+  <si>
+    <t>CHNSRRCORIG20201224001</t>
+  </si>
+  <si>
+    <t>CHNSRRCORIG20201229001</t>
+  </si>
+  <si>
+    <t>TWNBSMIORIG20201116001</t>
+  </si>
+  <si>
+    <t>TWNBSMIORIG20201116002</t>
   </si>
 </sst>
 </file>
@@ -1974,7 +1975,7 @@
   <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.5"/>
@@ -3550,4 +3551,419 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0761585-9309-4F75-8CD0-DF3DEB3CAD1E}">
+  <dimension ref="A1:A79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="25.796875" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A2" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A3" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A4" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A5" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A6" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A7" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A8" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A9" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A10" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A11" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A12" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A13" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A14" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A15" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A16" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A17" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A18" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A19" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A20" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A21" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A22" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A23" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A24" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A25" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A26" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A27" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A28" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A29" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A30" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A31" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A32" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A33" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A34" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A35" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A36" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A37" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A38" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A39" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A40" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A41" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A42" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A43" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A44" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A45" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A46" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A47" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A48" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A49" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A50" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A51" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A52" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A53" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A54" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A55" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A56" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A57" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A58" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A59" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A60" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A61" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A62" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A63" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A64" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A65" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A66" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A67" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A68" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A69" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A70" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A71" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A72" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A73" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A74" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A75" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A76" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A77" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A78" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A79" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/db_data/cert_record.xlsx
+++ b/db_data/cert_record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\IdeaProjects\QmServer\db_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE021585-0057-4ABB-9FCE-307DB5712224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2259593A-3421-41E2-81D2-6442D09C2C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14055" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="159">
   <si>
     <t>REC2021011800001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>资料准备</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -51,10 +47,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>发证</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>●变更已全部完成并归档，报告不变，仅更新工厂地址</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -79,10 +71,6 @@
   </si>
   <si>
     <t>REC2021012900001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>原型获证</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -110,19 +98,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>签章</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>● 方派纸质文档送达</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>REC2021011100003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>待受理</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -132,10 +112,6 @@
   </si>
   <si>
     <t>REC2021011500001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已受理</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -183,10 +159,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>待付款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>● 已补充说明书（含使用海拔和气候限制）
 ● 泰瑞特已发出付费通知</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -209,10 +181,6 @@
   </si>
   <si>
     <t>REC2021020800001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已获证</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -291,10 +259,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>已付款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>● 财务已完成付款，付款信息已上传CQC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -363,10 +327,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>付款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>● CQC已发出付费通知，已申请财务付款</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -404,10 +364,6 @@
   </si>
   <si>
     <t>● 需修改产品分类，0901</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证受理</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -506,10 +462,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>报告已提交</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>● 测试已通过，报告已上传，等待下证</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -531,10 +483,6 @@
     <t>EUXCEXXDERI20210112001</t>
   </si>
   <si>
-    <t>报告制作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>● 报告草稿已出</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -543,10 +491,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>● 恢复认证</t>
   </si>
   <si>
@@ -561,10 +505,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>整改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>● 设备无法点亮，需要更换逻辑板，预计12.30寄出，BTL自行更换测试温升</t>
   </si>
   <si>
@@ -577,10 +517,6 @@
   </si>
   <si>
     <t>REC2021011100001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>送样</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -594,10 +530,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>预审</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>● 预审通过，报告需确认：公司信息及关键件</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -606,10 +538,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>投件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>● 公司信息及关键件确认完毕，已投件</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -705,6 +633,28 @@
   </si>
   <si>
     <t>TWNBSMIORIG20201116002</t>
+  </si>
+  <si>
+    <t>DOC_PREPARE</t>
+  </si>
+  <si>
+    <t>GET_CERT</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>REPORT</t>
+  </si>
+  <si>
+    <t>RECTIFY</t>
+  </si>
+  <si>
+    <t>SAMPLE</t>
+  </si>
+  <si>
+    <t>GET_CERT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1974,34 +1924,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="20.046875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.59765625" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="64.19921875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="112.8" x14ac:dyDescent="0.5">
@@ -2009,1325 +1959,1325 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="D2" s="6">
         <v>44214</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="D3" s="6">
         <v>44354</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="D4" s="6">
         <v>44216</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="D5" s="6">
         <v>44195</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="D6" s="6">
         <v>44195</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="42.3" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="D7" s="6">
         <v>44225</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="D8" s="6">
         <v>44195</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="D9" s="6">
         <v>44198</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="D10" s="6">
         <v>44202</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="D11" s="6">
         <v>44207</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="56.4" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D12" s="6">
         <v>44211</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D13" s="6">
         <v>44216</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D14" s="6">
         <v>44218</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D15" s="6">
         <v>44218</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D16" s="6">
         <v>44223</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="D17" s="6">
         <v>44224</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="D18" s="6">
         <v>44230</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="D19" s="6">
         <v>44231</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="D20" s="6">
         <v>44235</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="D21" s="6">
         <v>44252</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="D22" s="6">
         <v>44252</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="42.3" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D23" s="6">
         <v>44253</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D24" s="6">
         <v>44256</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A25" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D25" s="6">
         <v>44258</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D26" s="6">
         <v>44259</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D27" s="6">
         <v>44259</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="D28" s="6">
         <v>44273</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="D29" s="6">
         <v>44280</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="D30" s="6">
         <v>44284</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="D31" s="6">
         <v>44256</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="D32" s="6">
         <v>44263</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="D33" s="6">
         <v>44278</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="D34" s="6">
         <v>44263</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="D35" s="6">
         <v>44263</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D36" s="6">
         <v>44264</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D37" s="6">
         <v>44268</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D38" s="6">
         <v>44273</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="D39" s="6">
         <v>44287</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="D40" s="6">
         <v>44301</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="D41" s="6">
         <v>44302</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="D42" s="6">
         <v>44263</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="D43" s="6">
         <v>44264</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="D44" s="6">
         <v>44266</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="D45" s="6">
         <v>44270</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="D46" s="6">
         <v>44273</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A47" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="D47" s="6">
         <v>44277</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="42.3" x14ac:dyDescent="0.5">
       <c r="A48" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="D48" s="6">
         <v>44278</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A49" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="D49" s="6">
         <v>44287</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A50" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="D50" s="6">
         <v>44301</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A51" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="D51" s="6">
         <v>44302</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A52" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="D52" s="6">
         <v>44151</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A53" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="D53" s="6">
         <v>44194</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A54" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="D54" s="6">
         <v>44198</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A55" s="3" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="D55" s="6">
         <v>44211</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A56" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="D56" s="6">
         <v>44195</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A57" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="D57" s="6">
         <v>44200</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="42.3" x14ac:dyDescent="0.5">
       <c r="A58" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="D58" s="6">
         <v>44200</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A59" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="D59" s="6">
         <v>44195</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A60" s="3" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="D60" s="6">
         <v>44235</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A61" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="D61" s="6">
         <v>44252</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A62" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="D62" s="6">
         <v>44264</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A63" s="3" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="D63" s="6">
         <v>44236</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A64" s="3" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="D64" s="6">
         <v>44239</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A65" s="3" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="D65" s="6">
         <v>44155</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A66" s="3" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="D66" s="6">
         <v>44162</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A67" s="3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="D67" s="6">
         <v>44176</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A68" s="3" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="D68" s="6">
         <v>44204</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="42.3" x14ac:dyDescent="0.5">
       <c r="A69" s="3" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="D69" s="6">
         <v>44207</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A70" s="3" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="D70" s="6">
         <v>44209</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A71" s="3" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D71" s="6">
         <v>44215</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A72" s="3" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="D72" s="6">
         <v>44221</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A73" s="3" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="D73" s="6">
         <v>44155</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A74" s="3" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="D74" s="6">
         <v>44162</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A75" s="3" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="D75" s="6">
         <v>44176</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="42.3" x14ac:dyDescent="0.5">
       <c r="A76" s="3" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="D76" s="6">
         <v>44207</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A77" s="3" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="D77" s="6">
         <v>44209</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A78" s="3" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D78" s="6">
         <v>44215</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A79" s="3" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="D79" s="6">
         <v>44221</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3558,7 +3508,7 @@
   <dimension ref="A1:A79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.5"/>
@@ -3568,397 +3518,397 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A20" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A21" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A27" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A30" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A31" s="9" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A32" s="9" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A33" s="9" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A35" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A36" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A37" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A38" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A39" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A40" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A42" s="4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A44" s="4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A46" s="4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A48" s="4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A49" s="4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A51" s="4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A53" s="4" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A55" s="4" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A56" s="4" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A58" s="4" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A59" s="4" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A62" s="4" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A64" s="4" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A65" s="4" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A66" s="4" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A67" s="4" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A68" s="4" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A69" s="4" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A70" s="4" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A71" s="4" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A72" s="4" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A73" s="4" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A74" s="4" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A76" s="4" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A77" s="4" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A78" s="4" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A79" s="4" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
